--- a/clean_ipynb_ryla_052120/ETL Framework.xlsx
+++ b/clean_ipynb_ryla_052120/ETL Framework.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8956d6bbf621de2b/Desktop/Rutgers/Classes/May_19_ETL_Day1/Activities/ETL_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rylac\OneDrive\Desktop\Rutgers\ETL_Project\local_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{99161446-5A7B-428C-BB8F-8B5D3096FF6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{931BB857-9C78-49B2-A1FC-3F8E174E3428}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0921F5-B457-4613-8333-F9DB2A73FF4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{8432DA80-8A4C-47DD-83A7-9A82DF5DAFF2}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{8432DA80-8A4C-47DD-83A7-9A82DF5DAFF2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Steps" sheetId="1" r:id="rId1"/>
     <sheet name="Architecture" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>IMDB Web Scraping</t>
   </si>
@@ -54,72 +54,125 @@
     <t>GOAL: See which streaming service has the most top rated movies</t>
   </si>
   <si>
-    <t>netflix_db</t>
-  </si>
-  <si>
-    <t>disney_db</t>
-  </si>
-  <si>
-    <t>End Table</t>
-  </si>
-  <si>
-    <t>* not sure</t>
-  </si>
-  <si>
-    <t>match on movie title and join</t>
-  </si>
-  <si>
-    <t>drop anything not in top 250</t>
-  </si>
-  <si>
-    <t>slice from streaming table</t>
-  </si>
-  <si>
-    <t>slice movie table</t>
-  </si>
-  <si>
     <t>Steps</t>
   </si>
   <si>
-    <t>complete streaming database</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Clean Kaggle Netflix Data and match against 250 movies</t>
-  </si>
-  <si>
     <t>Clean Disney Data and match against 250 movies</t>
   </si>
   <si>
     <t>Clean Prime data and match against 250 movies</t>
   </si>
   <si>
-    <t>IMDB250</t>
-  </si>
-  <si>
-    <t>Add:</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>title_id = rank(rename title_id to rank)</t>
-  </si>
-  <si>
-    <t>c/o Solito</t>
+    <t>Clean Hulu data and match against 250 movies</t>
+  </si>
+  <si>
+    <t>Prime scraping</t>
+  </si>
+  <si>
+    <t>Hulu scraping</t>
+  </si>
+  <si>
+    <t>Disney data</t>
+  </si>
+  <si>
+    <t>Netflix data</t>
+  </si>
+  <si>
+    <t>Clean Netflix Data and match against 250 movies</t>
+  </si>
+  <si>
+    <t>Files Masterlist</t>
+  </si>
+  <si>
+    <t>imdb250.csv</t>
+  </si>
+  <si>
+    <t>amazonprime.csv</t>
+  </si>
+  <si>
+    <t>hulu_raw.csv</t>
+  </si>
+  <si>
+    <t>disney_raw.csv</t>
+  </si>
+  <si>
+    <t>netlfix_raw.csv</t>
+  </si>
+  <si>
+    <t>netflix_clean.ipynb</t>
+  </si>
+  <si>
+    <t>disney_clean.ipynb</t>
+  </si>
+  <si>
+    <t>prime_clean.ipynb</t>
+  </si>
+  <si>
+    <t>hulu_clean.ipynb</t>
+  </si>
+  <si>
+    <t>Create movie table</t>
+  </si>
+  <si>
+    <t>Create schemas</t>
+  </si>
+  <si>
+    <t>Load tables</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>For github reference:</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>netflix_filtered.csv</t>
+  </si>
+  <si>
+    <t>disney_filtered.csv</t>
+  </si>
+  <si>
+    <t>prime_filtered.csv</t>
+  </si>
+  <si>
+    <t>hulu_filtered.csv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -149,14 +202,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,154 +1048,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536648E8-0611-4230-AEDA-F789AAFC4B7C}">
-  <dimension ref="B2:E25"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="3" max="3" width="52.9453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.47265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.68359375" customWidth="1"/>
+    <col min="5" max="5" width="20.7890625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="10.20703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E6" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="24" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="25" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="27" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="28" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="29" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="30" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D763B3A-7A9D-4737-AA2B-0421316A79F2}">
-  <dimension ref="Q21:R26"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView topLeftCell="B8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="21" spans="17:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="17:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="17:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="17:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
